--- a/Data_paper/Video simulations/parameters_sim.xlsx
+++ b/Data_paper/Video simulations/parameters_sim.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\GitHub\CaliAli\Data_paper\Video simulations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70B4E85-162A-42CD-82F6-ED6E783515E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14BD6D8-D552-4771-94E6-155A8DFDBB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="48" windowWidth="29304" windowHeight="13632" xr2:uid="{AF3DAF21-7C39-47B8-8585-A48E26BCD7C4}"/>
+    <workbookView xWindow="8880" yWindow="252" windowWidth="24780" windowHeight="13632" xr2:uid="{AF3DAF21-7C39-47B8-8585-A48E26BCD7C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,16 +63,16 @@
     <t>ses</t>
   </si>
   <si>
-    <t>F:\Tracking data\Simulations\220811\L</t>
+    <t>F:\Tracking data\Simulations\230111\L</t>
   </si>
   <si>
-    <t>F:\Tracking data\Simulations\220811\S</t>
+    <t>F:\Tracking data\Simulations\230111\S</t>
   </si>
   <si>
-    <t>F:\Tracking data\Simulations\220811\R00</t>
+    <t>F:\Tracking data\Simulations\230111\R00</t>
   </si>
   <si>
-    <t>F:\Tracking data\Simulations\220811\noise</t>
+    <t>F:\Tracking data\Simulations\230111\noise</t>
   </si>
 </sst>
 </file>
@@ -114,12 +114,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D5212D-FA8B-4711-97C2-C6774381873D}">
   <dimension ref="A1:AE56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1807,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E25" t="s">
         <v>1</v>
@@ -1863,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E26" t="s">
         <v>1</v>
@@ -1919,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E27" t="s">
         <v>1</v>
@@ -1975,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E28" t="s">
         <v>1</v>
@@ -2031,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E29" t="s">
         <v>1</v>
@@ -2087,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E30" t="s">
         <v>1</v>
@@ -2143,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E31" t="s">
         <v>1</v>
@@ -2199,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E32" t="s">
         <v>1</v>
@@ -2244,95 +2243,73 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="2"/>
+    <row r="34" spans="4:15" x14ac:dyDescent="0.3">
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="2"/>
+    <row r="35" spans="4:15" x14ac:dyDescent="0.3">
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="2"/>
+    <row r="36" spans="4:15" x14ac:dyDescent="0.3">
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="2"/>
+    <row r="37" spans="4:15" x14ac:dyDescent="0.3">
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="2"/>
+    <row r="39" spans="4:15" x14ac:dyDescent="0.3">
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="2"/>
+    <row r="40" spans="4:15" x14ac:dyDescent="0.3">
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="2"/>
+    <row r="41" spans="4:15" x14ac:dyDescent="0.3">
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="2"/>
+    <row r="42" spans="4:15" x14ac:dyDescent="0.3">
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="2"/>
+    <row r="43" spans="4:15" x14ac:dyDescent="0.3">
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B44" s="2"/>
+    <row r="44" spans="4:15" x14ac:dyDescent="0.3">
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B45" s="2"/>
+    <row r="45" spans="4:15" x14ac:dyDescent="0.3">
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="2"/>
+    <row r="46" spans="4:15" x14ac:dyDescent="0.3">
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B47" s="2"/>
+    <row r="47" spans="4:15" x14ac:dyDescent="0.3">
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B48" s="2"/>
+    <row r="48" spans="4:15" x14ac:dyDescent="0.3">
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B49" s="2"/>
+    <row r="49" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B50" s="2"/>
+    <row r="50" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B51" s="2"/>
+    <row r="51" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B52" s="2"/>
+    <row r="52" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B53" s="2"/>
+    <row r="53" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B54" s="2"/>
+    <row r="54" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B55" s="2"/>
+    <row r="55" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B56" s="2"/>
+    <row r="56" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O56" s="1"/>
     </row>
   </sheetData>
